--- a/hardware/SWD_Cat_Programmer/BOM_Cat_Programmer.xlsx
+++ b/hardware/SWD_Cat_Programmer/BOM_Cat_Programmer.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\electroniccats\CMSIS-DAP-Cat-programmer\hardware\SWD_Cat_Programmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3FA6A4-E4F7-4E2C-9F84-13E4723B492F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDF828D-7054-4436-811E-3D1DCCF1D66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2E185B6-83A7-4434-9C0B-F6E08730964F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,24 +109,15 @@
     <t>100 nF Capacitor</t>
   </si>
   <si>
-    <t>C42998</t>
-  </si>
-  <si>
     <t>R1,R2</t>
   </si>
   <si>
     <t>5.1k Resistor</t>
   </si>
   <si>
-    <t>C103686</t>
-  </si>
-  <si>
     <t>1K Resistor</t>
   </si>
   <si>
-    <t>C103209</t>
-  </si>
-  <si>
     <t>C131244</t>
   </si>
   <si>
@@ -135,24 +136,15 @@
     <t>20K Resistor</t>
   </si>
   <si>
-    <t>C4184</t>
-  </si>
-  <si>
     <t>R3,R4,R5</t>
   </si>
   <si>
     <t>150 Resistor</t>
   </si>
   <si>
-    <t>C103302</t>
-  </si>
-  <si>
     <t>C4,C5</t>
   </si>
   <si>
-    <t>C26413</t>
-  </si>
-  <si>
     <t>Regulator</t>
   </si>
   <si>
@@ -163,16 +155,35 @@
   </si>
   <si>
     <t>SWD_CAT_PROGRAMMER</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>C105874</t>
+  </si>
+  <si>
+    <t>C25623</t>
+  </si>
+  <si>
+    <t>C702832</t>
+  </si>
+  <si>
+    <t>C103997</t>
+  </si>
+  <si>
+    <t>C28323</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +194,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,26 +334,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,7 +845,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -852,30 +870,30 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -890,23 +908,23 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>0.11738999999999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f>PRODUCT(E3,F3,10)</f>
         <v>1.1738999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -914,23 +932,23 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
-        <v>3.5260000000000001E-3</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="F4">
+        <v>8.2489999999999994E-3</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G13" si="0">PRODUCT(E4,F4,10)</f>
-        <v>0.10578000000000001</v>
+        <v>0.24746999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -938,16 +956,16 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
-        <v>1.271E-3</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5">
+        <v>2.274E-3</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
-        <v>2.5419999999999998E-2</v>
+        <v>4.548E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -962,23 +980,23 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>0.42</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -986,71 +1004,71 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
-        <v>9.4799999999999995E-4</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7">
+        <v>1.835E-3</v>
+      </c>
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>9.4799999999999988E-3</v>
+        <v>1.8350000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1.9605999999999998E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
-        <v>0.19605999999999998</v>
+        <v>0.39211999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>0.82</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
+      <c r="A10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1058,23 +1076,23 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
-        <v>1.1980000000000001E-3</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10">
+        <v>1.8140000000000001E-3</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>1.1980000000000001E-2</v>
+        <v>1.814E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
+      <c r="A11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1082,23 +1100,23 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
-        <v>1.3010000000000001E-3</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>3.9030000000000002E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1106,49 +1124,49 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
-        <v>5.0070000000000002E-3</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12">
+        <v>1.5793999999999999E-2</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>0.10014000000000001</v>
+        <v>0.31587999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13">
         <v>2.6419000000000002E-2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>0.26419000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7">
         <f>SUM(F3:F13)</f>
-        <v>1.4166659999999998</v>
-      </c>
-      <c r="G14" s="13">
+        <v>1.436221</v>
+      </c>
+      <c r="G14" s="11">
         <f>SUM(G3:G13)</f>
-        <v>22.525980000000001</v>
+        <v>23.160729999999997</v>
       </c>
     </row>
   </sheetData>
